--- a/public/docs/kanji_n4.xlsx
+++ b/public/docs/kanji_n4.xlsx
@@ -1,34 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IG24-253\Documents\Work\ubuntu_practice\java\spring_boot\khans_kanji_english_practice\public\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JLPT N4 Kanji" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JLPT N4 Kanji" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Kanji</t>
+  </si>
+  <si>
+    <t>Hiragana</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>旅</t>
+  </si>
+  <si>
+    <t>たび</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>勉</t>
+  </si>
+  <si>
+    <t>べん</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>強</t>
+  </si>
+  <si>
+    <t>つよい</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>おしえる</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>しつ</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>会</t>
+  </si>
+  <si>
+    <t>かい</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>社</t>
+  </si>
+  <si>
+    <t>しゃ</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>員</t>
+  </si>
+  <si>
+    <t>いん</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>あける</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>閉</t>
+  </si>
+  <si>
+    <t>しめる</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +165,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,222 +467,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Kanji</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Hiragana</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ImageUrl</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>旅</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>たび</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>trip</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>勉</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>べん</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>強</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>つよい</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>教</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>おしえる</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>室</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>しつ</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>会</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>かい</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>社</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>しゃ</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>員</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>いん</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>member</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>開</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>あける</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>閉</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>しめる</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/public/docs/kanji_n4.xlsx
+++ b/public/docs/kanji_n4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Kanji</t>
   </si>
@@ -30,97 +30,147 @@
     <t>English</t>
   </si>
   <si>
+    <t>たび</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>べん</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>つよい</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>おしえる</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>しつ</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>かい</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>しゃ</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>いん</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>あける</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>しめる</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>旅</t>
-  </si>
-  <si>
-    <t>たび</t>
-  </si>
-  <si>
-    <t>trip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_trip.jpeg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>勉</t>
-  </si>
-  <si>
-    <t>べん</t>
-  </si>
-  <si>
-    <t>study</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_study.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>強</t>
-  </si>
-  <si>
-    <t>つよい</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_strong.png</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>教</t>
-  </si>
-  <si>
-    <t>おしえる</t>
-  </si>
-  <si>
-    <t>teach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_teach.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>室</t>
-  </si>
-  <si>
-    <t>しつ</t>
-  </si>
-  <si>
-    <t>room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_room.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>会</t>
-  </si>
-  <si>
-    <t>かい</t>
-  </si>
-  <si>
-    <t>meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_meeting.webp</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>社</t>
-  </si>
-  <si>
-    <t>しゃ</t>
-  </si>
-  <si>
-    <t>company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_company.webp</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>員</t>
-  </si>
-  <si>
-    <t>いん</t>
-  </si>
-  <si>
-    <t>member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_member.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>開</t>
-  </si>
-  <si>
-    <t>あける</t>
-  </si>
-  <si>
-    <t>open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_open.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>閉</t>
-  </si>
-  <si>
-    <t>しめる</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>ImageName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n4_close.webp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,7 +521,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -487,121 +537,152 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>